--- a/trend_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
+++ b/trend_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.934589115870897</v>
+        <v>0.06541088412910299</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.965485689399975</v>
+        <v>0.034514310600025</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.356009421234602</v>
+        <v>0.643990578765398</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.924660307845083</v>
+        <v>0.075339692154917</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.843337617231023</v>
+        <v>0.0052951985500496</v>
       </c>
       <c r="G30" t="n">
-        <v>0.028436018957346</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.625592417061611</v>
+        <v>0.62589928057554</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>32.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0.012497879345191</v>
+        <v>1.54267080745342</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0097008515106904</v>
+        <v>0.395944601583475</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0434803894380176</v>
+        <v>2.62141148325359</v>
       </c>
       <c r="N30" t="n">
-        <v>0.624893967259548</v>
+        <v>4.74667940754897</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.999997412175422</v>
+        <v>0.088516651933119</v>
       </c>
       <c r="G31" t="n">
-        <v>0.209205020920502</v>
+        <v>0.0328947368421053</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0920502092050209</v>
+        <v>0.638157894736842</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>0.008</v>
+        <v>2.1</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0002103974654377</v>
+        <v>-0.0395666892349357</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.000302213538456</v>
+        <v>-0.0881170301736806</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0001054112554112</v>
+        <v>0.0011294278437187</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.62996831797235</v>
+        <v>-1.88412805880646</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0012824308942698</v>
+        <v>0.124625608119897</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0125523012552301</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.598326359832636</v>
+        <v>0.7909604519774009</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>120</v>
+        <v>10.78</v>
       </c>
       <c r="K32" t="n">
-        <v>4.22156726768377</v>
+        <v>-0.019991789819376</v>
       </c>
       <c r="L32" t="n">
-        <v>1.90381239791748</v>
+        <v>-0.0459811165845649</v>
       </c>
       <c r="M32" t="n">
-        <v>6.88720681947102</v>
+        <v>0.0143900117577682</v>
       </c>
       <c r="N32" t="n">
-        <v>3.51797272306981</v>
+        <v>-0.18545259572705</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,11 +3371,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3386,19 +3386,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.992028314876939</v>
+        <v>0.524683806430631</v>
       </c>
       <c r="G33" t="n">
-        <v>0.743478260869565</v>
+        <v>0.251396648044693</v>
       </c>
       <c r="H33" t="n">
-        <v>0.295652173913043</v>
+        <v>0.0949720670391061</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>6.79392739778196e-07</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0055865921787709</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.681564245810056</v>
+      </c>
+      <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>0.999999673239629</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.790909090909091</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
       <c r="J34" t="n">
-        <v>0.911</v>
+        <v>120</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0233846548188653</v>
+        <v>9.89593596059113</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0309575069136708</v>
+        <v>6.44551968920814</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0161466446250636</v>
+        <v>14.5807217280419</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.56692149493582</v>
+        <v>8.24661330049261</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.99999995413906</v>
+        <v>0.650562610371625</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="H35" t="n">
-        <v>0.903765690376569</v>
+        <v>0.258823529411765</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>0.925</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0240824175824176</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0309791988279851</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0162926387906337</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-2.60350460350461</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3644,46 +3644,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.94947994145073</v>
+        <v>0.0274802736555603</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.203821656050955</v>
       </c>
       <c r="H36" t="n">
-        <v>0.794979079497908</v>
+        <v>0.0828025477707006</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.47</v>
+        <v>0.004</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0173928571428571</v>
+        <v>4.42569204984387e-05</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0379256183956514</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0001620452528837</v>
       </c>
       <c r="N36" t="n">
-        <v>-1.18318756073858</v>
+        <v>1.10642301246097</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3735,46 +3735,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.510713721106008</v>
+        <v>0.868011545951048</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0233333333333333</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.596666666666667</v>
+        <v>0.90625</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.1</v>
+        <v>0.83</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-0.008738038277511901</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0139377244933219</v>
+        <v>-0.0218512136901649</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0128631991556043</v>
+        <v>0.0026380500697101</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.05277569608578</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3826,11 +3826,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3841,31 +3841,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999999968334558</v>
+        <v>0.601171970670746</v>
       </c>
       <c r="G38" t="n">
-        <v>0.175074183976261</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08011869436201779</v>
+        <v>0.61849710982659</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.008</v>
+        <v>7.73</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0001364910313901</v>
+        <v>0.0016670470104974</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0001879502572898</v>
+        <v>-0.0116333903268309</v>
       </c>
       <c r="M38" t="n">
-        <v>-9.089081021088491e-05</v>
+        <v>0.0163710138714481</v>
       </c>
       <c r="N38" t="n">
-        <v>-1.70613789237668</v>
+        <v>0.0215659380400706</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,11 +3903,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3917,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.99999999999746</v>
+        <v>0.952583257137658</v>
       </c>
       <c r="G39" t="n">
-        <v>0.605504587155963</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.357798165137615</v>
+        <v>0.899441340782123</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.005</v>
+        <v>0.854</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>-0.009941441786705399</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-0.0216122249117505</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>-0.0003412726506597</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>-1.16410325371258</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3965,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3996,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4008,11 +4004,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -4023,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999999814263299</v>
+        <v>0.999644267420179</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.613207547169811</v>
+        <v>0.70391061452514</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0137648016494999</v>
+        <v>-0.0166438824333561</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0181492806437731</v>
+        <v>-0.0268125423873697</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0086506597895348</v>
+        <v>-0.0099896464897392</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.48008619887096</v>
+        <v>-1.61591091585982</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4087,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4099,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.999999994008656</v>
+        <v>0.750053690326597</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="H41" t="n">
-        <v>0.87202380952381</v>
+        <v>0.290502793296089</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>0.945</v>
+        <v>0.016</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0154920589786834</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0195787563256306</v>
+        <v>-0.0002981632653061</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0106860056886415</v>
+        <v>0.0001248291182501</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.6393713204956</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4147,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4194,7 +4190,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4205,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.998975392345301</v>
+        <v>0.557274524594468</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.673590504451039</v>
+        <v>0.843575418994413</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0193007470845481</v>
+        <v>-0.0027027461352145</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0317704310875456</v>
+        <v>-0.0282544390577362</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.009434641386712499</v>
+        <v>0.0304218993098572</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.26978599240448</v>
+        <v>-0.204753495092008</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4238,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4281,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4296,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.768783636774762</v>
+        <v>0.843337617231023</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.028436018957346</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.625592417061611</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>0.411</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>0.042625814465332</v>
+        <v>0.012497879345191</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0466676623642122</v>
+        <v>-0.0097008515106904</v>
       </c>
       <c r="M43" t="n">
-        <v>0.08113557888254461</v>
+        <v>0.0434803894380176</v>
       </c>
       <c r="N43" t="n">
-        <v>10.3712443954579</v>
+        <v>0.624893967259548</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4358,7 +4354,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4368,11 +4368,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.95679463351315</v>
+        <v>0.999997412175422</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.209205020920502</v>
       </c>
       <c r="H44" t="n">
+        <v>0.0920502092050209</v>
+      </c>
+      <c r="I44" t="n">
         <v>1</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>93</v>
+        <v>0.008</v>
       </c>
       <c r="K44" t="n">
-        <v>4.47640134621612</v>
+        <v>-0.0002103974654377</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.198175761134293</v>
+        <v>-0.000302213538456</v>
       </c>
       <c r="M44" t="n">
-        <v>5.93921795471066</v>
+        <v>-0.0001054112554112</v>
       </c>
       <c r="N44" t="n">
-        <v>4.81333478087754</v>
+        <v>-2.62996831797235</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4445,7 +4445,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4455,11 +4459,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4470,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.889664319040077</v>
+        <v>0.0012824308942698</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0125523012552301</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.598326359832636</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>4.6</v>
+        <v>120</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7441656531961059</v>
+        <v>4.22156726768377</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.258621288214547</v>
+        <v>1.90381239791748</v>
       </c>
       <c r="M45" t="n">
-        <v>1.10107975856921</v>
+        <v>6.88720681947102</v>
       </c>
       <c r="N45" t="n">
-        <v>16.1775141999153</v>
+        <v>3.51797272306981</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4503,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4532,7 +4536,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4542,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.762862824616335</v>
+        <v>0.992028314876939</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.743478260869565</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.295652173913043</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4255</v>
+        <v>0.005</v>
       </c>
       <c r="K46" t="n">
-        <v>0.004231716147719</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0164699909560861</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0128153974905137</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.994527884305299</v>
+        <v>0</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4590,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4619,7 +4627,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4629,14 +4641,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4644,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.237137175383665</v>
+        <v>0.999999673239629</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0.790909090909091</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>100.5</v>
+        <v>0.911</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.863475177304964</v>
+        <v>-0.0233846548188653</v>
       </c>
       <c r="L47" t="n">
-        <v>-2.74291226528904</v>
+        <v>-0.0309575069136708</v>
       </c>
       <c r="M47" t="n">
-        <v>0.648264125781194</v>
+        <v>-0.0161466446250636</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.859179280900462</v>
+        <v>-2.56692149493582</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4677,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4706,7 +4718,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4716,14 +4732,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4731,31 +4747,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.99999995413906</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.903765690376569</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.885</v>
+        <v>0.925</v>
       </c>
       <c r="K48" t="n">
-        <v>0.128303116147309</v>
+        <v>-0.0240824175824176</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.154964380452628</v>
+        <v>-0.0309791988279851</v>
       </c>
       <c r="M48" t="n">
-        <v>0.443027155409823</v>
+        <v>-0.0162926387906337</v>
       </c>
       <c r="N48" t="n">
-        <v>2.62647115961738</v>
+        <v>-2.60350460350461</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4764,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4793,7 +4809,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4803,14 +4823,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4818,31 +4838,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.687116014009443</v>
+        <v>0.94947994145073</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8</v>
+        <v>0.794979079497908</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>98</v>
+        <v>1.47</v>
       </c>
       <c r="K49" t="n">
-        <v>0.156533238623922</v>
+        <v>-0.0173928571428571</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.409037597354746</v>
+        <v>-0.0379256183956514</v>
       </c>
       <c r="M49" t="n">
-        <v>0.659183310269837</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.159727794514206</v>
+        <v>-1.18318756073858</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4851,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4880,7 +4900,1253 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>30</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.510713721106008</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0233333333333333</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.596666666666667</v>
+      </c>
+      <c r="I50" t="n">
+        <v>6</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0139377244933219</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0128631991556043</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>30</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.999999968334558</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.175074183976261</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.08011869436201779</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0001364910313901</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0001879502572898</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-9.089081021088491e-05</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-1.70613789237668</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>30</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.99999999999746</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.605504587155963</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.357798165137615</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>30</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.999999814263299</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.613207547169811</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.0137648016494999</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.0181492806437731</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.0086506597895348</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.48008619887096</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>30</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.999999994008656</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.87202380952381</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0154920589786834</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.0195787563256306</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.0106860056886415</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.6393713204956</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>30</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.998975392345301</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.673590504451039</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-0.0193007470845481</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.0317704310875456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.009434641386712499</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.26978599240448</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.768783636774762</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.042625814465332</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.0466676623642122</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.08113557888254461</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10.3712443954579</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.95679463351315</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>93</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.47640134621612</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.198175761134293</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5.93921795471066</v>
+      </c>
+      <c r="N57" t="n">
+        <v>4.81333478087754</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.7441656531961059</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.258621288214547</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.10107975856921</v>
+      </c>
+      <c r="N58" t="n">
+        <v>16.1775141999153</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>10</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.762862824616335</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4255</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.004231716147719</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.0164699909560861</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.0128153974905137</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.994527884305299</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.863475177304964</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-2.74291226528904</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.648264125781194</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.859179280900462</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.8584345646688269</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.885</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.128303116147309</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.154964380452628</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.443027155409823</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.62647115961738</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>15</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.213673143405019</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>100</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-0.329350766456267</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.365877789843</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.60261509953551</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.329350766456267</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Brewery - S.H.2 Bridge</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.687116014009443</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>98</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.156533238623922</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.409037597354746</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.659183310269837</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.159727794514206</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>1842795</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5521394</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
+++ b/trend_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.360883807215247</v>
+        <v>0.919071352409897</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7906976744186049</v>
+        <v>0.85</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.5</v>
+        <v>37.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.37312030075188</v>
+        <v>-5.68835622710623</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.92938311688312</v>
+        <v>-13.8648484502433</v>
       </c>
       <c r="M2" t="n">
-        <v>7.82901021257112</v>
+        <v>0.870815688555448</v>
       </c>
       <c r="N2" t="n">
-        <v>3.47625392595413</v>
+        <v>-15.0684933168377</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.011466622193621</v>
+        <v>0.292915854921769</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.948717948717949</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.49</v>
+        <v>1.115</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.334286891679749</v>
+        <v>-0.0948221301020408</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.574078078892743</v>
+        <v>-0.339669558080312</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0688792184200141</v>
+        <v>0.135455297737204</v>
       </c>
       <c r="N3" t="n">
-        <v>-22.4353618577013</v>
+        <v>-8.50422691498124</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.06541088412910299</v>
+        <v>0.09166061311125399</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.898305084745763</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>10.89</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.111993031358885</v>
+        <v>-0.08671928588927021</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.258289762186663</v>
+        <v>-0.242301039271187</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0134721192145848</v>
+        <v>0.0098934987075966</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.02840249181712</v>
+        <v>-0.796320347927183</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.029527363782446</v>
+        <v>0.0197161226982482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.288135593220339</v>
+        <v>0.310344827586207</v>
       </c>
       <c r="H5" t="n">
-        <v>0.220338983050847</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>0.006</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004531637717121</v>
+        <v>0.0005217857142857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0012423469387755</v>
+        <v>0.0013506526146738</v>
       </c>
       <c r="N5" t="n">
-        <v>7.55272952853598</v>
+        <v>8.696428571428561</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.105696183080472</v>
+        <v>0.228151074510676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.779661016949153</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="K6" t="n">
-        <v>25.6615925058548</v>
+        <v>14.6295060080107</v>
       </c>
       <c r="L6" t="n">
-        <v>-6.92678959788551</v>
+        <v>-15.3277956496705</v>
       </c>
       <c r="M6" t="n">
-        <v>75.3617499046935</v>
+        <v>84.8965335965475</v>
       </c>
       <c r="N6" t="n">
-        <v>11.664360229934</v>
+        <v>6.96643143238604</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,16 +1028,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.09924903024366009</v>
+        <v>0.0327828685966335</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7692307692307691</v>
+        <v>0.685185185185185</v>
       </c>
       <c r="H7" t="n">
-        <v>0.326923076923077</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0.005</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,17 +1115,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0826186474595397</v>
+        <v>0.991668909530909</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.135593220338983</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0003598522167487</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0006609909070042</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004926258882514</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-8.99630541871921</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0470405488817487</v>
+        <v>0.475928106975438</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.932203389830508</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.744</v>
+        <v>0.7635</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06311923963133639</v>
+        <v>0.0058336291038154</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0014295627825019</v>
+        <v>-0.0570752485078771</v>
       </c>
       <c r="M9" t="n">
-        <v>0.124714903719774</v>
+        <v>0.06702490409084599</v>
       </c>
       <c r="N9" t="n">
-        <v>8.483768767652739</v>
+        <v>0.764064060748585</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,31 +1301,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.034514310600025</v>
+        <v>0.037272408162207</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.844827586206897</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0701504481434061</v>
+        <v>-0.08027472527472521</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.145320112606401</v>
+        <v>-0.148615156274787</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0115561068972961</v>
+        <v>-0.008243347369569901</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.905167072818143</v>
+        <v>-1.04252889967176</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0355392455284022</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.966101694915254</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.765</v>
+        <v>0.7915</v>
       </c>
       <c r="K11" t="n">
-        <v>0.065140127388535</v>
+        <v>0.0010130363057994</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0063136131793473</v>
+        <v>-0.0565433000540852</v>
       </c>
       <c r="M11" t="n">
-        <v>0.127148685334785</v>
+        <v>0.0672024517502115</v>
       </c>
       <c r="N11" t="n">
-        <v>8.515049331834639</v>
+        <v>0.127989425874854</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5971851789827189</v>
+        <v>0.356211124939333</v>
       </c>
       <c r="G12" t="n">
-        <v>0.406779661016949</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.355932203389831</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0200326729191861</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0304698786019592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0858085602567062</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.10870241254591</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0470006885512314</v>
+        <v>0.151709932475198</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.796610169491525</v>
+        <v>0.551724137931034</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.014</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0513231850117096</v>
+        <v>0.0005924574209245</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.0003231110468781</v>
       </c>
       <c r="M13" t="n">
-        <v>0.105124174798829</v>
+        <v>0.0022523253802798</v>
       </c>
       <c r="N13" t="n">
-        <v>5.45991329911804</v>
+        <v>4.23183872088982</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,46 +1646,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.371567772699008</v>
+        <v>0.383733986980362</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.593220338983051</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.016</v>
+        <v>1.25</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0200854078010275</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0011464356053727</v>
+        <v>-0.121168456407125</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0017684662671873</v>
+        <v>0.232630312161526</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.6068326240822</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.66223222590575</v>
+        <v>0.146204257031311</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.932203389830508</v>
+        <v>0.6703296703296699</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.28</v>
+        <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.049302587176603</v>
+        <v>1.31277297543221</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.204193679959735</v>
+        <v>-0.649438514051722</v>
       </c>
       <c r="M15" t="n">
-        <v>0.196084724678311</v>
+        <v>3.373970503608</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.85176462317211</v>
+        <v>3.75077992980632</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0501519782517233</v>
+        <v>0.000380632869033</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="H16" t="n">
-        <v>0.645833333333333</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>35</v>
+        <v>2.24</v>
       </c>
       <c r="K16" t="n">
-        <v>1.89790031934307</v>
+        <v>-0.221469047619048</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.316735076094915</v>
       </c>
       <c r="M16" t="n">
-        <v>3.8046875</v>
+        <v>-0.112020674999676</v>
       </c>
       <c r="N16" t="n">
-        <v>5.42257234098019</v>
+        <v>-9.88701105442177</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.33860936419872e-05</v>
+        <v>0.703224463532876</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0306122448979592</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.806122448979592</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.25</v>
+        <v>10.86</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.257111801242236</v>
+        <v>0.0245477188421884</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.354402417039721</v>
+        <v>-0.0394196943587809</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.160127232441829</v>
+        <v>0.0692061532840102</v>
       </c>
       <c r="N17" t="n">
-        <v>-11.4271911663216</v>
+        <v>0.22603792672365</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.477453725013755</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.245762711864407</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.11864406779661</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.643990578765398</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.847457627118644</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.84</v>
+        <v>0.007</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0171077283372364</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0398036730769258</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06401712474889119</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.157820372114727</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.361903903497003</v>
+        <v>0.0005675312126129</v>
       </c>
       <c r="G19" t="n">
-        <v>0.235294117647059</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.117647058823529</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007</v>
+        <v>135.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>16.831797235023</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>7.87832943787352</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001138219075999</v>
+        <v>33.1488050949305</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>12.4219905793528</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.3569554552584e-05</v>
+        <v>0.0019826635955117</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.809090909090909</v>
       </c>
       <c r="H20" t="n">
-        <v>0.663865546218487</v>
+        <v>0.281818181818182</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>130</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>18.5149769585253</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>9.779544177969489</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>31.1787752622184</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>14.2422899680964</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.166716243236369</v>
+        <v>0.998714917482855</v>
       </c>
       <c r="G21" t="n">
-        <v>0.828828828828829</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="H21" t="n">
-        <v>0.252252252252252</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0001710772833723</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0003001701425964</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-4.27693208430913</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.981720197263945</v>
+        <v>0.988451534997481</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0756302521008403</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.109243697478992</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.82165</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001236459038591</v>
+        <v>-0.0300310051790315</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002728809654007</v>
+        <v>-0.0451160153323081</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-0.0091971132756306</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.09114759647935</v>
+        <v>-3.65496320562666</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2465,46 +2465,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.08135368179667</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.949579831932773</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8012</v>
+        <v>7.725</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.0194287411934471</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0232546387706501</v>
+        <v>-0.0410470428644029</v>
       </c>
       <c r="M23" t="n">
-        <v>0.018901451256961</v>
+        <v>0.003286113674738</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.251504740368248</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.075339692154917</v>
+        <v>0.983782097732095</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.717948717948718</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.75</v>
+        <v>0.838</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0211465262379896</v>
+        <v>-0.026881133044272</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0425370233612925</v>
+        <v>-0.0439304167410689</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0029653314926889</v>
+        <v>-0.0072991125796214</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.272858403070833</v>
+        <v>-3.2077724396506</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.458383907943403</v>
+        <v>0.990702251241805</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.92436974789916</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8110000000000001</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0005001141031492</v>
+        <v>-0.0197612462006079</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.021989394237676</v>
+        <v>-0.0324555707450444</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0190818597147652</v>
+        <v>-0.009957842318430899</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0616663505732757</v>
+        <v>-1.97612462006079</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2745,35 +2745,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.473874773112508</v>
+        <v>0.207999936661067</v>
       </c>
       <c r="G26" t="n">
-        <v>0.294117647058824</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.235294117647059</v>
+        <v>0.372881355932203</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0.0155</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0001445389790265</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-0.0001410231660231</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0666738976014826</v>
+        <v>0.0006851678644600999</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.932509542106541</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2836,35 +2836,35 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.66213960998482</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.789915966386555</v>
+        <v>0.889830508474576</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.99</v>
+        <v>1.25</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0059975369458128</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0179239367502726</v>
+        <v>-0.0459891812412104</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0083463015939696</v>
+        <v>0.0944183673469388</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.605811812708365</v>
+        <v>0</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.242095429302388</v>
+        <v>0.0050462300664518</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.352941176470588</v>
+        <v>0.616438356164384</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.015</v>
+        <v>32</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001288359788359</v>
+        <v>1.40306643907563</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001836523552565</v>
+        <v>0.342614773504025</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0006544601807422</v>
+        <v>2.42451605514182</v>
       </c>
       <c r="N28" t="n">
-        <v>0.858906525573193</v>
+        <v>4.38458262211134</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5</v>
+        <v>0.074115339087893</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0328947368421053</v>
       </c>
       <c r="H29" t="n">
-        <v>0.873949579831933</v>
+        <v>0.671052631578947</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.28</v>
+        <v>2.12</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.0410289261405354</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0393018447933558</v>
+        <v>-0.0908795667022223</v>
       </c>
       <c r="M29" t="n">
-        <v>0.08972164335287849</v>
+        <v>-3.98309087063688e-17</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-1.93532670474224</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0052951985500496</v>
+        <v>0.695527766765887</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.62589928057554</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>32.5</v>
+        <v>10.76</v>
       </c>
       <c r="K30" t="n">
-        <v>1.54267080745342</v>
+        <v>0.0145192546583851</v>
       </c>
       <c r="L30" t="n">
-        <v>0.395944601583475</v>
+        <v>-0.017855485588775</v>
       </c>
       <c r="M30" t="n">
-        <v>2.62141148325359</v>
+        <v>0.0499742454134049</v>
       </c>
       <c r="N30" t="n">
-        <v>4.74667940754897</v>
+        <v>0.134937310951534</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.682362458900821</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.258426966292135</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0898876404494382</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.088516651933119</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0328947368421053</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.638157894736842</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.1</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0395666892349357</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0881170301736806</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0011294278437187</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.88412805880646</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>8.19441046103901e-06</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0056179775280898</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.707865168539326</v>
+      </c>
+      <c r="I32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.124625608119897</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.7909604519774009</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>10.78</v>
+        <v>120</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.019991789819376</v>
+        <v>9.80324675324675</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0459811165845649</v>
+        <v>5.98770491803279</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0143900117577682</v>
+        <v>15.3092672700646</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.18545259572705</v>
+        <v>8.169372294372289</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,23 +3382,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.524683806430631</v>
+        <v>0.304791611043657</v>
       </c>
       <c r="G33" t="n">
-        <v>0.251396648044693</v>
+        <v>0.7692307692307691</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0949720670391061</v>
+        <v>0.27810650887574</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,35 +3473,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6.79392739778196e-07</v>
+        <v>0.263875687661994</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0055865921787709</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="H34" t="n">
-        <v>0.681564245810056</v>
+        <v>0.0773809523809524</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>120</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>9.89593596059113</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>6.44551968920814</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>14.5807217280419</v>
+        <v>5.59617934919183e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>8.24661330049261</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.650562610371625</v>
+        <v>0.947838493857173</v>
       </c>
       <c r="G35" t="n">
-        <v>0.794117647058823</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.258823529411765</v>
+        <v>0.8988095238095239</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.8205</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0109514831058548</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.02241827197012</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.33473285872697</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0274802736555603</v>
+        <v>0.491019005417631</v>
       </c>
       <c r="G36" t="n">
-        <v>0.203821656050955</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0828025477707006</v>
+        <v>0.6220930232558139</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004</v>
+        <v>7.715</v>
       </c>
       <c r="K36" t="n">
-        <v>4.42569204984387e-05</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0138722222706112</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001620452528837</v>
+        <v>0.014064359619448</v>
       </c>
       <c r="N36" t="n">
-        <v>1.10642301246097</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.868011545951048</v>
+        <v>0.989872905227427</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.90625</v>
+        <v>0.910112359550562</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.83</v>
+        <v>0.8465</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.008738038277511901</v>
+        <v>-0.0147590027571113</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0218512136901649</v>
+        <v>-0.0247332701625729</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0026380500697101</v>
+        <v>-0.0028898525103671</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.05277569608578</v>
+        <v>-1.74353251708344</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3822,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.601171970670746</v>
+        <v>0.999969181807053</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.61849710982659</v>
+        <v>0.691011235955056</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.73</v>
+        <v>1.011</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0016670470104974</v>
+        <v>-0.0205214787051184</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0116333903268309</v>
+        <v>-0.0290790811960189</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0163710138714481</v>
+        <v>-0.0128307962529274</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0215659380400706</v>
+        <v>-2.02981985213832</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.952583257137658</v>
+        <v>0.785575601889492</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H39" t="n">
-        <v>0.899441340782123</v>
+        <v>0.297752808988764</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>0.854</v>
+        <v>0.016</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.009941441786705399</v>
+        <v>-8.61032531824612e-05</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0216122249117505</v>
+        <v>-0.0003263344563669</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0003412726506597</v>
+        <v>0.0001044242251083</v>
       </c>
       <c r="N39" t="n">
-        <v>-1.16410325371258</v>
+        <v>-0.538145332390382</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.999644267420179</v>
+        <v>0.636252995265149</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.70391061452514</v>
+        <v>0.848314606741573</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.325</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0166438824333561</v>
+        <v>-0.0065742175576402</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0268125423873697</v>
+        <v>-0.0339368594186537</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0099896464897392</v>
+        <v>0.0261209103003253</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.61591091585982</v>
+        <v>-0.496167362840774</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.750053690326597</v>
+        <v>0.887193761714918</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0111731843575419</v>
+        <v>0.0288461538461538</v>
       </c>
       <c r="H41" t="n">
-        <v>0.290502793296089</v>
+        <v>0.629807692307692</v>
       </c>
       <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
         <v>2</v>
       </c>
-      <c r="J41" t="n">
-        <v>0.016</v>
-      </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.019991789819376</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0002981632653061</v>
+        <v>-0.008856047634973</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001248291182501</v>
+        <v>0.0501687432591994</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.999589490968801</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9999971945392619</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.218487394957983</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.092436974789916</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.557274524594468</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.843575418994413</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.32</v>
+        <v>0.008</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0027027461352145</v>
+        <v>-0.0002056298381421</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0282544390577362</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0304218993098572</v>
+        <v>-9.863534197583e-05</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.204753495092008</v>
+        <v>-2.57037297677692</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,14 +4277,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.843337617231023</v>
+        <v>0.0018554183428142</v>
       </c>
       <c r="G43" t="n">
-        <v>0.028436018957346</v>
+        <v>0.0126050420168067</v>
       </c>
       <c r="H43" t="n">
-        <v>0.625592417061611</v>
+        <v>0.626050420168067</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="K43" t="n">
-        <v>0.012497879345191</v>
+        <v>4.43302990897269</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0097008515106904</v>
+        <v>1.86008644896554</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0434803894380176</v>
+        <v>7.20495464070842</v>
       </c>
       <c r="N43" t="n">
-        <v>0.624893967259548</v>
+        <v>3.69419159081058</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4379,35 +4379,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.999997412175422</v>
+        <v>0.582028200481301</v>
       </c>
       <c r="G44" t="n">
-        <v>0.209205020920502</v>
+        <v>0.755458515283843</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0920502092050209</v>
+        <v>0.283842794759825</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0002103974654377</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.000302213538456</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0001054112554112</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-2.62996831797235</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4459,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4474,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.0012824308942698</v>
+        <v>0.999994477077107</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0125523012552301</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.598326359832636</v>
+        <v>0.817351598173516</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>120</v>
+        <v>0.89</v>
       </c>
       <c r="K45" t="n">
-        <v>4.22156726768377</v>
+        <v>-0.0184717062073222</v>
       </c>
       <c r="L45" t="n">
-        <v>1.90381239791748</v>
+        <v>-0.025889367816092</v>
       </c>
       <c r="M45" t="n">
-        <v>6.88720681947102</v>
+        <v>-0.012080868032549</v>
       </c>
       <c r="N45" t="n">
-        <v>3.51797272306981</v>
+        <v>-2.07547260756429</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4550,46 +4550,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.992028314876939</v>
+        <v>0.999999108851243</v>
       </c>
       <c r="G46" t="n">
-        <v>0.743478260869565</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.295652173913043</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.005</v>
+        <v>0.90625</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-0.0186767227432397</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-0.0260253017062119</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-0.0123900272353062</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-2.06087975097817</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4656,31 +4656,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.999999673239629</v>
+        <v>0.97827420498732</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.790909090909091</v>
+        <v>0.819327731092437</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.911</v>
+        <v>1.475</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0233846548188653</v>
+        <v>-0.0232861421251643</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0309575069136708</v>
+        <v>-0.0433794458487714</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0161466446250636</v>
+        <v>-0.0049812564009782</v>
       </c>
       <c r="N47" t="n">
-        <v>-2.56692149493582</v>
+        <v>-1.57872150001114</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4732,46 +4732,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.99999995413906</v>
+        <v>0.512813404131001</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.0226537216828479</v>
       </c>
       <c r="H48" t="n">
-        <v>0.903765690376569</v>
+        <v>0.598705501618123</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
-        <v>0.925</v>
+        <v>2.1</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0240824175824176</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0309791988279851</v>
+        <v>-0.013992589183911</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0162926387906337</v>
+        <v>0.0128578513087026</v>
       </c>
       <c r="N48" t="n">
-        <v>-2.60350460350461</v>
+        <v>0</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -4838,31 +4838,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.94947994145073</v>
+        <v>0.999999986827775</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.183908045977011</v>
       </c>
       <c r="H49" t="n">
-        <v>0.794979079497908</v>
+        <v>0.0775862068965517</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.47</v>
+        <v>0.008</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0173928571428571</v>
+        <v>-0.0001427594293531</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0379256183956514</v>
+        <v>-0.0001907580285659</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>-9.09940209267563e-05</v>
       </c>
       <c r="N49" t="n">
-        <v>-1.18318756073858</v>
+        <v>-1.78449286691421</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4914,43 +4914,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>30</v>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.510713721106008</v>
+        <v>0.999999999903281</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0233333333333333</v>
+        <v>0.600591715976331</v>
       </c>
       <c r="H50" t="n">
-        <v>0.596666666666667</v>
+        <v>0.363905325443787</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J50" t="n">
-        <v>2.1</v>
+        <v>0.005</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0139377244933219</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.0128631991556043</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4993,7 +4993,7 @@
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.999999968334558</v>
+        <v>0.999999994497072</v>
       </c>
       <c r="G51" t="n">
-        <v>0.175074183976261</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.08011869436201779</v>
+        <v>0.617021276595745</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.008</v>
+        <v>0.92</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.0001364910313901</v>
+        <v>-0.0146584874990789</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.0001879502572898</v>
+        <v>-0.0186489781281384</v>
       </c>
       <c r="M51" t="n">
-        <v>-9.089081021088491e-05</v>
+        <v>-0.0100004006899669</v>
       </c>
       <c r="N51" t="n">
-        <v>-1.70613789237668</v>
+        <v>-1.59331385859554</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5096,46 +5096,46 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>30</v>
       </c>
       <c r="D52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.99999999999746</v>
+        <v>0.999999999873789</v>
       </c>
       <c r="G52" t="n">
-        <v>0.605504587155963</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.357798165137615</v>
+        <v>0.881844380403458</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.005</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>-0.015883758388301</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>-0.0199362076172043</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>-0.0116337932110757</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>-1.70243926991436</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="W52" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5202,31 +5202,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.999999814263299</v>
+        <v>0.999090372941167</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.613207547169811</v>
+        <v>0.6781609195402299</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.93</v>
+        <v>1.52</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0137648016494999</v>
+        <v>-0.0190284536592926</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.0181492806437731</v>
+        <v>-0.0310268510233408</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0086506597895348</v>
+        <v>-0.009496302106002901</v>
       </c>
       <c r="N53" t="n">
-        <v>-1.48008619887096</v>
+        <v>-1.25187195126925</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -5278,46 +5278,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>1</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>0.999999994008656</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.87202380952381</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.945</v>
+        <v>0.411</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0154920589786834</v>
+        <v>-0.0010777726849824</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0195787563256306</v>
+        <v>-0.117498473297651</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0106860056886415</v>
+        <v>0.060514495813791</v>
       </c>
       <c r="N54" t="n">
-        <v>-1.6393713204956</v>
+        <v>-0.262231796832722</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -5355,11 +5355,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5369,46 +5365,46 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
         <v>1</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>0.998975392345301</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.673590504451039</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.52</v>
+        <v>97.5</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.0193007470845481</v>
+        <v>4.25185177265535</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0317704310875456</v>
+        <v>-3.56329540014359</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.009434641386712499</v>
+        <v>5.93921795471066</v>
       </c>
       <c r="N55" t="n">
-        <v>-1.26978599240448</v>
+        <v>4.36087361297984</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5417,7 +5413,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -5446,11 +5442,7 @@
           <t>Mana_8c</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5460,7 +5452,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -5487,19 +5479,19 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.411</v>
+        <v>4.95</v>
       </c>
       <c r="K56" t="n">
-        <v>0.042625814465332</v>
+        <v>0.450337404909151</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.0466676623642122</v>
+        <v>-1.09948011767481</v>
       </c>
       <c r="M56" t="n">
-        <v>0.08113557888254461</v>
+        <v>1.10107975856921</v>
       </c>
       <c r="N56" t="n">
-        <v>10.3712443954579</v>
+        <v>9.09772535170001</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5547,11 +5539,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -5562,7 +5554,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.95679463351315</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -5574,19 +5566,19 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>93</v>
+        <v>0.4065</v>
       </c>
       <c r="K57" t="n">
-        <v>4.47640134621612</v>
+        <v>0.0018362659963436</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.198175761134293</v>
+        <v>-0.0178482768761674</v>
       </c>
       <c r="M57" t="n">
-        <v>5.93921795471066</v>
+        <v>0.0123099767618898</v>
       </c>
       <c r="N57" t="n">
-        <v>4.81333478087754</v>
+        <v>0.451725952360072</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5595,7 +5587,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -5634,11 +5626,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -5649,7 +5641,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.889664319040077</v>
+        <v>0.5</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -5661,19 +5653,19 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4.6</v>
+        <v>98.75</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7441656531961059</v>
+        <v>-0.146275530636764</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.258621288214547</v>
+        <v>-1.5760298020551</v>
       </c>
       <c r="M58" t="n">
-        <v>1.10107975856921</v>
+        <v>1.24765523151798</v>
       </c>
       <c r="N58" t="n">
-        <v>16.1775141999153</v>
+        <v>-0.148127119632166</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5682,7 +5674,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q58" t="n">
@@ -5721,7 +5713,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -5736,7 +5728,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.762862824616335</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -5748,19 +5740,19 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4255</v>
+        <v>4.775</v>
       </c>
       <c r="K59" t="n">
-        <v>0.004231716147719</v>
+        <v>0.165738441780822</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.0164699909560861</v>
+        <v>-0.0240411516015627</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0128153974905137</v>
+        <v>0.443027155409823</v>
       </c>
       <c r="N59" t="n">
-        <v>0.994527884305299</v>
+        <v>3.47096213153554</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5769,7 +5761,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q59" t="n">
@@ -5808,11 +5800,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -5823,31 +5815,31 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.237137175383665</v>
+        <v>0.7945772533607121</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>100.5</v>
+        <v>0.4065</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.863475177304964</v>
+        <v>0.0036122099657664</v>
       </c>
       <c r="L60" t="n">
-        <v>-2.74291226528904</v>
+        <v>-0.0079759756606744</v>
       </c>
       <c r="M60" t="n">
-        <v>0.648264125781194</v>
+        <v>0.0118936288654998</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.859179280900462</v>
+        <v>0.888612537703925</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5856,7 +5848,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q60" t="n">
@@ -5895,11 +5887,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -5910,31 +5902,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.8584345646688269</v>
+        <v>0.259748045355119</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.885</v>
+        <v>98</v>
       </c>
       <c r="K61" t="n">
-        <v>0.128303116147309</v>
+        <v>-0.329350766456267</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.154964380452628</v>
+        <v>-1.33724390661278</v>
       </c>
       <c r="M61" t="n">
-        <v>0.443027155409823</v>
+        <v>0.620856241451627</v>
       </c>
       <c r="N61" t="n">
-        <v>2.62647115961738</v>
+        <v>-0.33607221066966</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -5943,7 +5935,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q61" t="n">
@@ -5982,7 +5974,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -5997,31 +5989,31 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.213673143405019</v>
+        <v>0.744389827655904</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.866666666666667</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>100</v>
+        <v>4.865</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.329350766456267</v>
+        <v>0.0603926972097829</v>
       </c>
       <c r="L62" t="n">
-        <v>-1.365877789843</v>
+        <v>-0.0906691479916642</v>
       </c>
       <c r="M62" t="n">
-        <v>0.60261509953551</v>
+        <v>0.170268745691519</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.329350766456267</v>
+        <v>1.24137096011887</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6030,7 +6022,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q62" t="n">
@@ -6084,13 +6076,13 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.687116014009443</v>
+        <v>0.474090476586625</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -6099,16 +6091,16 @@
         <v>98</v>
       </c>
       <c r="K63" t="n">
-        <v>0.156533238623922</v>
+        <v>-0.0125528535721724</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.409037597354746</v>
+        <v>-0.600689391987701</v>
       </c>
       <c r="M63" t="n">
-        <v>0.659183310269837</v>
+        <v>0.607169843120262</v>
       </c>
       <c r="N63" t="n">
-        <v>0.159727794514206</v>
+        <v>-0.0128090342573188</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6117,7 +6109,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q63" t="n">

--- a/trend_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
+++ b/trend_results/Rivers/MangatainokaatBrewerySH2Bridge_12e45619c0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -139,55 +139,61 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Very unlikely increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Likely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -575,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +675,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.919071352409897</v>
+        <v>0.846842442422156</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.85</v>
+        <v>0.914285714285714</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>37.75</v>
+        <v>32.5</v>
       </c>
       <c r="K2">
-        <v>-5.68835622710623</v>
+        <v>-3.07794943820225</v>
       </c>
       <c r="L2">
-        <v>-13.8648484502433</v>
+        <v>-9.05780903607288</v>
       </c>
       <c r="M2">
-        <v>0.870815688555448</v>
+        <v>1.91179458800483</v>
       </c>
       <c r="N2">
-        <v>-15.0684933168377</v>
+        <v>-9.470613656006909</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -708,19 +714,19 @@
         <v>5521394</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -740,31 +746,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.292915854921769</v>
+        <v>0.999502169444205</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.972222222222222</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.115</v>
+        <v>1.495</v>
       </c>
       <c r="K3">
-        <v>-0.0948221301020408</v>
+        <v>0.68312734962406</v>
       </c>
       <c r="L3">
-        <v>-0.339669558080312</v>
+        <v>0.328560129197673</v>
       </c>
       <c r="M3">
-        <v>0.135455297737204</v>
+        <v>1.11797853811878</v>
       </c>
       <c r="N3">
-        <v>-8.50422691498124</v>
+        <v>45.6941370985993</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
@@ -779,19 +785,19 @@
         <v>5521394</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,19 +811,19 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.09166061311125399</v>
+        <v>0.36017069942051</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.862068965517241</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -826,16 +832,16 @@
         <v>10.89</v>
       </c>
       <c r="K4">
-        <v>-0.08671928588927021</v>
+        <v>-0.0269849128144584</v>
       </c>
       <c r="L4">
-        <v>-0.242301039271187</v>
+        <v>-0.161848801829113</v>
       </c>
       <c r="M4">
-        <v>0.0098934987075966</v>
+        <v>0.105147246231861</v>
       </c>
       <c r="N4">
-        <v>-0.796320347927183</v>
+        <v>-0.247795342648838</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
@@ -850,19 +856,19 @@
         <v>5521394</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,34 +885,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.0197161226982482</v>
+        <v>0.256167560021875</v>
       </c>
       <c r="G5">
-        <v>0.310344827586207</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.224137931034483</v>
+        <v>0.293103448275862</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0.006</v>
       </c>
       <c r="K5">
-        <v>0.0005217857142857</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0002386701682881</v>
       </c>
       <c r="M5">
-        <v>0.0013506526146738</v>
+        <v>0.0006596014856326</v>
       </c>
       <c r="N5">
-        <v>8.696428571428561</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
@@ -921,19 +927,19 @@
         <v>5521394</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -953,37 +959,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.228151074510676</v>
+        <v>0.889848360561561</v>
       </c>
       <c r="G6">
-        <v>0.0172413793103448</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H6">
-        <v>0.827586206896552</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K6">
-        <v>14.6295060080107</v>
+        <v>-22.0011374861094</v>
       </c>
       <c r="L6">
-        <v>-15.3277956496705</v>
+        <v>-71.15237954239311</v>
       </c>
       <c r="M6">
-        <v>84.8965335965475</v>
+        <v>5.28562441150095</v>
       </c>
       <c r="N6">
-        <v>6.96643143238604</v>
+        <v>-11.0005687430547</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6">
         <v>1842795</v>
@@ -992,19 +998,19 @@
         <v>5521394</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1021,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.0327828685966335</v>
+        <v>0.611625076621795</v>
       </c>
       <c r="G7">
-        <v>0.685185185185185</v>
+        <v>0.660714285714286</v>
       </c>
       <c r="H7">
-        <v>0.388888888888889</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0.005</v>
@@ -1054,7 +1060,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1842795</v>
@@ -1063,19 +1069,19 @@
         <v>5521394</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1095,37 +1101,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.991668909530909</v>
+        <v>0.999988087248973</v>
       </c>
       <c r="G8">
+        <v>0.224137931034483</v>
+      </c>
+      <c r="H8">
         <v>0.120689655172414</v>
-      </c>
-      <c r="H8">
-        <v>0.137931034482759</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0003598522167487</v>
+        <v>-0.0006852720450281</v>
       </c>
       <c r="L8">
-        <v>-0.0006609909070042</v>
+        <v>-0.0009410314707805</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0003867989556422</v>
       </c>
       <c r="N8">
-        <v>-8.99630541871921</v>
+        <v>-22.8424015009381</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1842795</v>
@@ -1134,19 +1140,19 @@
         <v>5521394</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1172,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.475928106975438</v>
+        <v>0.859952787040397</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.948275862068966</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7635</v>
+        <v>0.7325</v>
       </c>
       <c r="K9">
-        <v>0.0058336291038154</v>
+        <v>-0.0312513368983957</v>
       </c>
       <c r="L9">
-        <v>-0.0570752485078771</v>
+        <v>-0.0801474810564609</v>
       </c>
       <c r="M9">
-        <v>0.06702490409084599</v>
+        <v>0.0218399241190903</v>
       </c>
       <c r="N9">
-        <v>0.764064060748585</v>
+        <v>-4.26639411582194</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q9">
         <v>1842795</v>
@@ -1205,19 +1211,19 @@
         <v>5521394</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,37 +1243,37 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.037272408162207</v>
+        <v>0.069056580752327</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.859649122807018</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.7</v>
+        <v>7.615</v>
       </c>
       <c r="K10">
-        <v>-0.08027472527472521</v>
+        <v>-0.0603719008264465</v>
       </c>
       <c r="L10">
-        <v>-0.148615156274787</v>
+        <v>-0.130446428571428</v>
       </c>
       <c r="M10">
-        <v>-0.008243347369569901</v>
+        <v>0.0080554195846721</v>
       </c>
       <c r="N10">
-        <v>-1.04252889967176</v>
+        <v>-0.792802374608621</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q10">
         <v>1842795</v>
@@ -1276,16 +1282,16 @@
         <v>5521394</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1311,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.746491225748484</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7915</v>
+        <v>0.7495000000000001</v>
       </c>
       <c r="K11">
-        <v>0.0010130363057994</v>
+        <v>-0.0229685577580314</v>
       </c>
       <c r="L11">
-        <v>-0.0565433000540852</v>
+        <v>-0.0744925598587995</v>
       </c>
       <c r="M11">
-        <v>0.0672024517502115</v>
+        <v>0.0277673017245051</v>
       </c>
       <c r="N11">
-        <v>0.127989425874854</v>
+        <v>-3.06451737932374</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q11">
         <v>1842795</v>
@@ -1344,19 +1350,19 @@
         <v>5521394</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,43 +1376,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.356211124939333</v>
+        <v>0.940270334118339</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.758620689655172</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="K12">
-        <v>0.0200326729191861</v>
+        <v>-0.0453726708074535</v>
       </c>
       <c r="L12">
-        <v>-0.0304698786019592</v>
+        <v>-0.09098083276082131</v>
       </c>
       <c r="M12">
-        <v>0.0858085602567062</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2.10870241254591</v>
+        <v>-4.98600778103884</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q12">
         <v>1842795</v>
@@ -1415,19 +1421,19 @@
         <v>5521394</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,13 +1453,13 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.151709932475198</v>
+        <v>0.96587316091334</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.551724137931034</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1462,22 +1468,22 @@
         <v>0.014</v>
       </c>
       <c r="K13">
-        <v>0.0005924574209245</v>
+        <v>-0.0011595238095238</v>
       </c>
       <c r="L13">
-        <v>-0.0003231110468781</v>
+        <v>-0.0032009926893219</v>
       </c>
       <c r="M13">
-        <v>0.0022523253802798</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4.23183872088982</v>
+        <v>-8.28231292517007</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="Q13">
         <v>1842795</v>
@@ -1486,19 +1492,19 @@
         <v>5521394</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1518,37 +1524,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.383733986980362</v>
+        <v>0.64454144330569</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9655172413793101</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.25</v>
+        <v>1.305</v>
       </c>
       <c r="K14">
-        <v>0.0200854078010275</v>
+        <v>-0.016411354139374</v>
       </c>
       <c r="L14">
-        <v>-0.121168456407125</v>
+        <v>-0.301984930154069</v>
       </c>
       <c r="M14">
-        <v>0.232630312161526</v>
+        <v>0.054706071054415</v>
       </c>
       <c r="N14">
-        <v>1.6068326240822</v>
+        <v>-1.25757502983709</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1842795</v>
@@ -1557,19 +1563,19 @@
         <v>5521394</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1589,37 +1595,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.146204257031311</v>
+        <v>0.145605494324488</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6703296703296699</v>
+        <v>0.741176470588235</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>1.31277297543221</v>
+        <v>1.20097945836794</v>
       </c>
       <c r="L15">
-        <v>-0.649438514051722</v>
+        <v>-0.593962682025173</v>
       </c>
       <c r="M15">
-        <v>3.373970503608</v>
+        <v>3.24508045884951</v>
       </c>
       <c r="N15">
-        <v>3.75077992980632</v>
+        <v>3.7530608073998</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q15">
         <v>1842795</v>
@@ -1628,19 +1634,19 @@
         <v>5521394</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1660,37 +1666,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.000380632869033</v>
+        <v>0.046893691464402</v>
       </c>
       <c r="G16">
-        <v>0.0210526315789474</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H16">
-        <v>0.852631578947368</v>
+        <v>0.840425531914894</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="K16">
-        <v>-0.221469047619048</v>
+        <v>-0.118293034605146</v>
       </c>
       <c r="L16">
-        <v>-0.316735076094915</v>
+        <v>-0.238904433467453</v>
       </c>
       <c r="M16">
-        <v>-0.112020674999676</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>-9.88701105442177</v>
+        <v>-5.25746820467318</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1842795</v>
@@ -1699,19 +1705,19 @@
         <v>5521394</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1731,37 +1737,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.703224463532876</v>
+        <v>0.850908814373865</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.837606837606838</v>
+        <v>0.863247863247863</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.86</v>
+        <v>10.89</v>
       </c>
       <c r="K17">
-        <v>0.0245477188421884</v>
+        <v>0.0391436995407484</v>
       </c>
       <c r="L17">
-        <v>-0.0394196943587809</v>
+        <v>-0.0192083643287061</v>
       </c>
       <c r="M17">
-        <v>0.0692061532840102</v>
+        <v>0.07723276326530901</v>
       </c>
       <c r="N17">
-        <v>0.22603792672365</v>
+        <v>0.359446276774549</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q17">
         <v>1842795</v>
@@ -1770,19 +1776,19 @@
         <v>5521394</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1799,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>0.477453725013755</v>
+        <v>0.877549592112958</v>
       </c>
       <c r="G18">
-        <v>0.245762711864407</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="H18">
         <v>0.11864406779661</v>
@@ -1814,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0002456354237797</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1832,7 +1838,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q18">
         <v>1842795</v>
@@ -1841,19 +1847,19 @@
         <v>5521394</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1873,37 +1879,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.0005675312126129</v>
+        <v>0.0155439729899048</v>
       </c>
       <c r="G19">
-        <v>0.008474576271186401</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H19">
-        <v>0.711864406779661</v>
+        <v>0.709401709401709</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>135.5</v>
+        <v>130.8</v>
       </c>
       <c r="K19">
-        <v>16.831797235023</v>
+        <v>10.1056022934305</v>
       </c>
       <c r="L19">
-        <v>7.87832943787352</v>
+        <v>2.03688591441226</v>
       </c>
       <c r="M19">
-        <v>33.1488050949305</v>
+        <v>18.2731016290425</v>
       </c>
       <c r="N19">
-        <v>12.4219905793528</v>
+        <v>7.72599563717928</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q19">
         <v>1842795</v>
@@ -1912,19 +1918,19 @@
         <v>5521394</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1941,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0019826635955117</v>
+        <v>0.0282912355731839</v>
       </c>
       <c r="G20">
-        <v>0.809090909090909</v>
+        <v>0.792792792792793</v>
       </c>
       <c r="H20">
-        <v>0.281818181818182</v>
+        <v>0.297297297297297</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1974,7 +1980,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1842795</v>
@@ -1983,19 +1989,19 @@
         <v>5521394</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2012,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>0.998714917482855</v>
+        <v>0.9999989798323</v>
       </c>
       <c r="G21">
-        <v>0.101694915254237</v>
+        <v>0.161016949152542</v>
       </c>
       <c r="H21">
         <v>0.110169491525424</v>
@@ -2030,22 +2036,22 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>-0.0001710772833723</v>
+        <v>-0.0003623511904761</v>
       </c>
       <c r="L21">
-        <v>-0.0003001701425964</v>
+        <v>-0.0004973624763152</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0002220364741641</v>
       </c>
       <c r="N21">
-        <v>-4.27693208430913</v>
+        <v>-9.058779761904759</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1842795</v>
@@ -2054,19 +2060,19 @@
         <v>5521394</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2086,37 +2092,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.988451534997481</v>
+        <v>0.999168636345128</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.82165</v>
+        <v>0.7875</v>
       </c>
       <c r="K22">
-        <v>-0.0300310051790315</v>
+        <v>-0.0393068949458076</v>
       </c>
       <c r="L22">
-        <v>-0.0451160153323081</v>
+        <v>-0.0549056546767901</v>
       </c>
       <c r="M22">
-        <v>-0.0091971132756306</v>
+        <v>-0.0205664405515692</v>
       </c>
       <c r="N22">
-        <v>-3.65496320562666</v>
+        <v>-4.99135173915017</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q22">
         <v>1842795</v>
@@ -2125,19 +2131,19 @@
         <v>5521394</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2157,37 +2163,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.08135368179667</v>
+        <v>0.02625283395032</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.724137931034483</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.725</v>
+        <v>7.7</v>
       </c>
       <c r="K23">
-        <v>-0.0194287411934471</v>
+        <v>-0.0249128457749147</v>
       </c>
       <c r="L23">
-        <v>-0.0410470428644029</v>
+        <v>-0.0471567215500964</v>
       </c>
       <c r="M23">
-        <v>0.003286113674738</v>
+        <v>-0.003648851148851</v>
       </c>
       <c r="N23">
-        <v>-0.251504740368248</v>
+        <v>-0.323543451622269</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1842795</v>
@@ -2196,16 +2202,16 @@
         <v>5521394</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2225,37 +2231,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.983782097732095</v>
+        <v>0.998577627419817</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.932203389830508</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.838</v>
+        <v>0.803</v>
       </c>
       <c r="K24">
-        <v>-0.026881133044272</v>
+        <v>-0.0402160602765696</v>
       </c>
       <c r="L24">
-        <v>-0.0439304167410689</v>
+        <v>-0.0523856428257834</v>
       </c>
       <c r="M24">
-        <v>-0.0072991125796214</v>
+        <v>-0.0209083212954519</v>
       </c>
       <c r="N24">
-        <v>-3.2077724396506</v>
+        <v>-5.00822668450432</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1842795</v>
@@ -2264,19 +2270,19 @@
         <v>5521394</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2296,37 +2302,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.990702251241805</v>
+        <v>0.999922067560655</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.728813559322034</v>
+        <v>0.669491525423729</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="K25">
-        <v>-0.0197612462006079</v>
+        <v>-0.0301030219780219</v>
       </c>
       <c r="L25">
-        <v>-0.0324555707450444</v>
+        <v>-0.0500274957535713</v>
       </c>
       <c r="M25">
-        <v>-0.009957842318430899</v>
+        <v>-0.0187506933046919</v>
       </c>
       <c r="N25">
-        <v>-1.97612462006079</v>
+        <v>-3.10340432763113</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1842795</v>
@@ -2335,19 +2341,19 @@
         <v>5521394</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2367,7 +2373,7 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.207999936661067</v>
+        <v>0.926380160278729</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2379,25 +2385,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.0155</v>
+        <v>0.016</v>
       </c>
       <c r="K26">
-        <v>0.0001445389790265</v>
+        <v>-0.000311513859275</v>
       </c>
       <c r="L26">
-        <v>-0.0001410231660231</v>
+        <v>-0.0006783064373206</v>
       </c>
       <c r="M26">
-        <v>0.0006851678644600999</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0.932509542106541</v>
+        <v>-1.94696162046908</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q26">
         <v>1842795</v>
@@ -2406,19 +2412,19 @@
         <v>5521394</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2435,31 +2441,31 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.489451482386642</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.889830508474576</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-0.0459891812412104</v>
+        <v>-0.0341693083330927</v>
       </c>
       <c r="M27">
-        <v>0.0944183673469388</v>
+        <v>0.0563439493463594</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2468,7 +2474,7 @@
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q27">
         <v>1842795</v>
@@ -2477,19 +2483,19 @@
         <v>5521394</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2509,13 +2515,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0050462300664518</v>
+        <v>0.0271130792497029</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.616438356164384</v>
+        <v>0.618055555555556</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2524,22 +2530,22 @@
         <v>32</v>
       </c>
       <c r="K28">
-        <v>1.40306643907563</v>
+        <v>0.833523505248745</v>
       </c>
       <c r="L28">
-        <v>0.342614773504025</v>
+        <v>0.0276631178862054</v>
       </c>
       <c r="M28">
-        <v>2.42451605514182</v>
+        <v>1.74854579563575</v>
       </c>
       <c r="N28">
-        <v>4.38458262211134</v>
+        <v>2.60476095390233</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q28">
         <v>1842795</v>
@@ -2548,19 +2554,19 @@
         <v>5521394</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2577,40 +2583,40 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.074115339087893</v>
+        <v>0.09746488323803899</v>
       </c>
       <c r="G29">
-        <v>0.0328947368421053</v>
+        <v>0.0264900662251656</v>
       </c>
       <c r="H29">
-        <v>0.671052631578947</v>
+        <v>0.682119205298013</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J29">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="K29">
-        <v>-0.0410289261405354</v>
+        <v>-0.0400091282519398</v>
       </c>
       <c r="L29">
-        <v>-0.0908795667022223</v>
+        <v>-0.085516057085309</v>
       </c>
       <c r="M29">
-        <v>-3.98309087063688E-17</v>
+        <v>0.004986488936235</v>
       </c>
       <c r="N29">
-        <v>-1.93532670474224</v>
+        <v>-1.77031540937787</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q29">
         <v>1842795</v>
@@ -2619,19 +2625,19 @@
         <v>5521394</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2651,37 +2657,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.695527766765887</v>
+        <v>0.94551342243786</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.779661016949153</v>
+        <v>0.795454545454545</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.76</v>
+        <v>10.78</v>
       </c>
       <c r="K30">
-        <v>0.0145192546583851</v>
+        <v>0.0373593590180701</v>
       </c>
       <c r="L30">
-        <v>-0.017855485588775</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0.0499742454134049</v>
+        <v>0.0609904762104335</v>
       </c>
       <c r="N30">
-        <v>0.134937310951534</v>
+        <v>0.346561771967255</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q30">
         <v>1842795</v>
@@ -2690,19 +2696,19 @@
         <v>5521394</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2719,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31">
-        <v>0.682362458900821</v>
+        <v>0.892108155401667</v>
       </c>
       <c r="G31">
-        <v>0.258426966292135</v>
+        <v>0.264044943820225</v>
       </c>
       <c r="H31">
-        <v>0.0898876404494382</v>
+        <v>0.0842696629213483</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2740,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-9.69115589294218E-05</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2752,7 +2758,7 @@
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1842795</v>
@@ -2761,19 +2767,19 @@
         <v>5521394</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2793,13 +2799,13 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>8.19441046103901E-06</v>
+        <v>4.65556599564497E-05</v>
       </c>
       <c r="G32">
-        <v>0.0056179775280898</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H32">
-        <v>0.707865168539326</v>
+        <v>0.706214689265537</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2808,22 +2814,22 @@
         <v>120</v>
       </c>
       <c r="K32">
-        <v>9.80324675324675</v>
+        <v>8.023002887980621</v>
       </c>
       <c r="L32">
-        <v>5.98770491803279</v>
+        <v>4.59928263934934</v>
       </c>
       <c r="M32">
-        <v>15.3092672700646</v>
+        <v>12.1345514950166</v>
       </c>
       <c r="N32">
-        <v>8.169372294372289</v>
+        <v>6.68583573998385</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q32">
         <v>1842795</v>
@@ -2832,19 +2838,19 @@
         <v>5521394</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2861,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.304791611043657</v>
+        <v>0.469846997360679</v>
       </c>
       <c r="G33">
         <v>0.7692307692307691</v>
@@ -2894,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1842795</v>
@@ -2903,19 +2909,19 @@
         <v>5521394</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2932,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F34">
-        <v>0.263875687661994</v>
+        <v>0.8581944555937721</v>
       </c>
       <c r="G34">
-        <v>0.214285714285714</v>
+        <v>0.230337078651685</v>
       </c>
       <c r="H34">
-        <v>0.0773809523809524</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2953,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-8.42568762869763E-05</v>
       </c>
       <c r="M34">
-        <v>5.59617934919183E-05</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2965,7 +2971,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q34">
         <v>1842795</v>
@@ -2974,19 +2980,19 @@
         <v>5521394</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3006,37 +3012,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.947838493857173</v>
+        <v>0.985258354887712</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.8988095238095239</v>
+        <v>0.893258426966292</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.8205</v>
+        <v>0.8061</v>
       </c>
       <c r="K35">
-        <v>-0.0109514831058548</v>
+        <v>-0.014628087378386</v>
       </c>
       <c r="L35">
-        <v>-0.02241827197012</v>
+        <v>-0.0231817867034072</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.0027770486780647</v>
       </c>
       <c r="N35">
-        <v>-1.33473285872697</v>
+        <v>-1.81467403279816</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q35">
         <v>1842795</v>
@@ -3045,19 +3051,19 @@
         <v>5521394</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3071,43 +3077,43 @@
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.491019005417631</v>
+        <v>0.01953087592724</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.6220930232558139</v>
+        <v>0.6091954022988511</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.715</v>
+        <v>7.71</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>-0.0139942528735633</v>
       </c>
       <c r="L36">
-        <v>-0.0138722222706112</v>
+        <v>-0.0283172091262009</v>
       </c>
       <c r="M36">
-        <v>0.014064359619448</v>
+        <v>-0.0035349307806805</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>-0.181507819371768</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q36">
         <v>1842795</v>
@@ -3116,16 +3122,16 @@
         <v>5521394</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,37 +3151,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.989872905227427</v>
+        <v>0.984122657016856</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.910112359550562</v>
+        <v>0.904494382022472</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.8465</v>
+        <v>0.81525</v>
       </c>
       <c r="K37">
-        <v>-0.0147590027571113</v>
+        <v>-0.0146287800240323</v>
       </c>
       <c r="L37">
-        <v>-0.0247332701625729</v>
+        <v>-0.0226234839951122</v>
       </c>
       <c r="M37">
-        <v>-0.0028898525103671</v>
+        <v>-0.0020490136375656</v>
       </c>
       <c r="N37">
-        <v>-1.74353251708344</v>
+        <v>-1.79439190727167</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q37">
         <v>1842795</v>
@@ -3184,19 +3190,19 @@
         <v>5521394</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3216,37 +3222,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.999969181807053</v>
+        <v>0.999994900455543</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.691011235955056</v>
+        <v>0.679775280898876</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1.011</v>
+        <v>0.995</v>
       </c>
       <c r="K38">
-        <v>-0.0205214787051184</v>
+        <v>-0.0202155253283302</v>
       </c>
       <c r="L38">
-        <v>-0.0290790811960189</v>
+        <v>-0.0284195278717002</v>
       </c>
       <c r="M38">
-        <v>-0.0128307962529274</v>
+        <v>-0.0134199494690973</v>
       </c>
       <c r="N38">
-        <v>-2.02981985213832</v>
+        <v>-2.03171108827439</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q38">
         <v>1842795</v>
@@ -3255,19 +3261,19 @@
         <v>5521394</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3287,13 +3293,13 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.785575601889492</v>
+        <v>0.967979135012105</v>
       </c>
       <c r="G39">
         <v>0.0112359550561798</v>
       </c>
       <c r="H39">
-        <v>0.297752808988764</v>
+        <v>0.286516853932584</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -3302,22 +3308,22 @@
         <v>0.016</v>
       </c>
       <c r="K39">
-        <v>-8.61032531824612E-05</v>
+        <v>-0.0002366375121477</v>
       </c>
       <c r="L39">
-        <v>-0.0003263344563669</v>
+        <v>-0.0004395053187234</v>
       </c>
       <c r="M39">
-        <v>0.0001044242251083</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>-0.538145332390382</v>
+        <v>-1.47898445092323</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1842795</v>
@@ -3326,19 +3332,19 @@
         <v>5521394</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3358,13 +3364,13 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.636252995265149</v>
+        <v>0.7961241583840311</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.848314606741573</v>
+        <v>0.831460674157303</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3373,22 +3379,22 @@
         <v>1.325</v>
       </c>
       <c r="K40">
-        <v>-0.0065742175576402</v>
+        <v>-0.0114229493314898</v>
       </c>
       <c r="L40">
-        <v>-0.0339368594186537</v>
+        <v>-0.0391480592221589</v>
       </c>
       <c r="M40">
-        <v>0.0261209103003253</v>
+        <v>0.0118896052621058</v>
       </c>
       <c r="N40">
-        <v>-0.496167362840774</v>
+        <v>-0.862109383508663</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1842795</v>
@@ -3397,19 +3403,19 @@
         <v>5521394</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3429,37 +3435,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.887193761714918</v>
+        <v>0.963079601781202</v>
       </c>
       <c r="G41">
-        <v>0.0288461538461538</v>
+        <v>0.029126213592233</v>
       </c>
       <c r="H41">
-        <v>0.629807692307692</v>
+        <v>0.611650485436893</v>
       </c>
       <c r="I41">
         <v>6</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="K41">
-        <v>0.019991789819376</v>
+        <v>0.03331964969896</v>
       </c>
       <c r="L41">
-        <v>-0.008856047634973</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>0.0501687432591994</v>
+        <v>0.0651966151344502</v>
       </c>
       <c r="N41">
-        <v>0.999589490968801</v>
+        <v>1.63331616171373</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q41">
         <v>1842795</v>
@@ -3468,19 +3474,19 @@
         <v>5521394</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3488,49 +3494,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.9999971945392619</v>
+        <v>0.245738017315833</v>
       </c>
       <c r="G42">
-        <v>0.218487394957983</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.092436974789916</v>
+        <v>0.771144278606965</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.008</v>
+        <v>10.83</v>
       </c>
       <c r="K42">
-        <v>-0.0002056298381421</v>
+        <v>-0.0116401146932084</v>
       </c>
       <c r="L42">
-        <v>-0.0002998768472906</v>
+        <v>-0.0327518622795745</v>
       </c>
       <c r="M42">
-        <v>-9.863534197583E-05</v>
+        <v>0.0172726157900712</v>
       </c>
       <c r="N42">
-        <v>-2.57037297677692</v>
+        <v>-0.107480283409127</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q42">
         <v>1842795</v>
@@ -3539,19 +3545,19 @@
         <v>5521394</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3559,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3571,37 +3577,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.0018554183428142</v>
+        <v>0.999998060314764</v>
       </c>
       <c r="G43">
-        <v>0.0126050420168067</v>
+        <v>0.239495798319328</v>
       </c>
       <c r="H43">
-        <v>0.626050420168067</v>
+        <v>0.08823529411764711</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>120</v>
+        <v>0.007</v>
       </c>
       <c r="K43">
-        <v>4.43302990897269</v>
+        <v>-0.0001986493836113</v>
       </c>
       <c r="L43">
-        <v>1.86008644896554</v>
+        <v>-0.0002879612109744</v>
       </c>
       <c r="M43">
-        <v>7.20495464070842</v>
+        <v>-8.99642292504511E-05</v>
       </c>
       <c r="N43">
-        <v>3.69419159081058</v>
+        <v>-2.83784833730446</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q43">
         <v>1842795</v>
@@ -3610,19 +3616,19 @@
         <v>5521394</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,7 +3636,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3639,40 +3645,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.582028200481301</v>
+        <v>4.23421181499546E-05</v>
       </c>
       <c r="G44">
-        <v>0.755458515283843</v>
+        <v>0.0126582278481013</v>
       </c>
       <c r="H44">
-        <v>0.283842794759825</v>
+        <v>0.645569620253165</v>
       </c>
       <c r="I44">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>118</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>5.19427321028513</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>2.96247344194821</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>7.55949859057572</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>4.40192644939418</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q44">
         <v>1842795</v>
@@ -3681,19 +3687,19 @@
         <v>5521394</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,49 +3707,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F45">
-        <v>0.999994477077107</v>
+        <v>0.760244585134624</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.755458515283843</v>
       </c>
       <c r="H45">
-        <v>0.817351598173516</v>
+        <v>0.283842794759825</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J45">
-        <v>0.89</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>-0.0184717062073222</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.025889367816092</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>-0.012080868032549</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-2.07547260756429</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q45">
         <v>1842795</v>
@@ -3752,19 +3758,19 @@
         <v>5521394</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3772,7 +3778,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,37 +3790,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.999999108851243</v>
+        <v>0.999996474257045</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.911764705882353</v>
+        <v>0.8356164383561639</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.90625</v>
+        <v>0.86</v>
       </c>
       <c r="K46">
-        <v>-0.0186767227432397</v>
+        <v>-0.0184274322660099</v>
       </c>
       <c r="L46">
-        <v>-0.0260253017062119</v>
+        <v>-0.0250920188076485</v>
       </c>
       <c r="M46">
-        <v>-0.0123900272353062</v>
+        <v>-0.0125139349244593</v>
       </c>
       <c r="N46">
-        <v>-2.06087975097817</v>
+        <v>-2.14272468209417</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q46">
         <v>1842795</v>
@@ -3823,19 +3829,19 @@
         <v>5521394</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3843,7 +3849,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -3855,31 +3861,31 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.97827420498732</v>
+        <v>0.68177623661006</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.819327731092437</v>
+        <v>0.586538461538462</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>1.475</v>
+        <v>7.7</v>
       </c>
       <c r="K47">
-        <v>-0.0232861421251643</v>
+        <v>0.0026655719759168</v>
       </c>
       <c r="L47">
-        <v>-0.0433794458487714</v>
+        <v>-0.0074586587109572</v>
       </c>
       <c r="M47">
-        <v>-0.0049812564009782</v>
+        <v>0.0133763477368812</v>
       </c>
       <c r="N47">
-        <v>-1.57872150001114</v>
+        <v>0.0346178178690494</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
@@ -3894,19 +3900,16 @@
         <v>5521394</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3914,49 +3917,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>0.512813404131001</v>
+        <v>0.999999496821021</v>
       </c>
       <c r="G48">
-        <v>0.0226537216828479</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>0.598705501618123</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>2.1</v>
+        <v>0.8764999999999999</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>-0.0183926874904724</v>
       </c>
       <c r="L48">
-        <v>-0.013992589183911</v>
+        <v>-0.0248808773773086</v>
       </c>
       <c r="M48">
-        <v>0.0128578513087026</v>
+        <v>-0.0123900272353062</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>-2.09842412897575</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q48">
         <v>1842795</v>
@@ -3965,19 +3968,19 @@
         <v>5521394</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3985,10 +3988,10 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -3997,37 +4000,37 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.999999986827775</v>
+        <v>0.999999981826031</v>
       </c>
       <c r="G49">
-        <v>0.183908045977011</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0.0775862068965517</v>
+        <v>0.64018691588785</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.008</v>
+        <v>1.011</v>
       </c>
       <c r="K49">
-        <v>-0.0001427594293531</v>
+        <v>-0.0199890549644076</v>
       </c>
       <c r="L49">
-        <v>-0.0001907580285659</v>
+        <v>-0.0265968436774147</v>
       </c>
       <c r="M49">
-        <v>-9.09940209267563E-05</v>
+        <v>-0.0137393800990895</v>
       </c>
       <c r="N49">
-        <v>-1.78449286691421</v>
+        <v>-1.97715677194932</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q49">
         <v>1842795</v>
@@ -4036,19 +4039,19 @@
         <v>5521394</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4056,49 +4059,49 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>0.999999999903281</v>
+        <v>0.989723820581677</v>
       </c>
       <c r="G50">
-        <v>0.600591715976331</v>
+        <v>0.0093457943925233</v>
       </c>
       <c r="H50">
-        <v>0.363905325443787</v>
+        <v>0.261682242990654</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J50">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>-0.0002201627486437</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>-0.0003773038337825</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>-1.37601717902351</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q50">
         <v>1842795</v>
@@ -4107,19 +4110,19 @@
         <v>5521394</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4127,10 +4130,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -4139,37 +4142,37 @@
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.999999994497072</v>
+        <v>0.9787757933325</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.617021276595745</v>
+        <v>0.819327731092437</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.92</v>
+        <v>1.405</v>
       </c>
       <c r="K51">
-        <v>-0.0146584874990789</v>
+        <v>-0.0205067497606445</v>
       </c>
       <c r="L51">
-        <v>-0.0186489781281384</v>
+        <v>-0.0397767520671977</v>
       </c>
       <c r="M51">
-        <v>-0.0100004006899669</v>
+        <v>-0.004227573254757</v>
       </c>
       <c r="N51">
-        <v>-1.59331385859554</v>
+        <v>-1.45955514310637</v>
       </c>
       <c r="O51" t="s">
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q51">
         <v>1842795</v>
@@ -4178,19 +4181,19 @@
         <v>5521394</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W51" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4198,7 +4201,7 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>30</v>
@@ -4210,37 +4213,37 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.999999999873789</v>
+        <v>0.895948806709542</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.0226537216828479</v>
       </c>
       <c r="H52">
-        <v>0.881844380403458</v>
+        <v>0.585760517799353</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J52">
-        <v>0.9330000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="K52">
-        <v>-0.015883758388301</v>
+        <v>0.0100196598390636</v>
       </c>
       <c r="L52">
-        <v>-0.0199362076172043</v>
+        <v>-0.0034380303491512</v>
       </c>
       <c r="M52">
-        <v>-0.0116337932110757</v>
+        <v>0.0272473380311538</v>
       </c>
       <c r="N52">
-        <v>-1.70243926991436</v>
+        <v>0.477126659003031</v>
       </c>
       <c r="O52" t="s">
         <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q52">
         <v>1842795</v>
@@ -4249,19 +4252,19 @@
         <v>5521394</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4269,7 +4272,7 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>30</v>
@@ -4281,37 +4284,37 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.999090372941167</v>
+        <v>0.99999999627887</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>0.194842406876791</v>
       </c>
       <c r="H53">
-        <v>0.6781609195402299</v>
+        <v>0.07736389684813751</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53">
-        <v>1.52</v>
+        <v>0.008</v>
       </c>
       <c r="K53">
-        <v>-0.0190284536592926</v>
+        <v>-0.0001429270201526</v>
       </c>
       <c r="L53">
-        <v>-0.0310268510233408</v>
+        <v>-0.0001897067677584</v>
       </c>
       <c r="M53">
-        <v>-0.009496302106002901</v>
+        <v>-9.10393818544366E-05</v>
       </c>
       <c r="N53">
-        <v>-1.25187195126925</v>
+        <v>-1.78658775190765</v>
       </c>
       <c r="O53" t="s">
         <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q53">
         <v>1842795</v>
@@ -4320,16 +4323,16 @@
         <v>5521394</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="W53" t="s">
         <v>67</v>
@@ -4340,49 +4343,49 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F54">
-        <v>0.5</v>
+        <v>0.999999999521897</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>0.622418879056047</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0.342182890855457</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J54">
-        <v>0.411</v>
+        <v>0.005</v>
       </c>
       <c r="K54">
-        <v>-0.0010777726849824</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>-0.117498473297651</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>0.060514495813791</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>-0.262231796832722</v>
+        <v>0</v>
       </c>
       <c r="O54" t="s">
         <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q54">
         <v>1842795</v>
@@ -4391,16 +4394,19 @@
         <v>5521394</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V54" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="W54" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4408,49 +4414,49 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.889664319040077</v>
+        <v>0.999999999999775</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>97.5</v>
+        <v>0.92</v>
       </c>
       <c r="K55">
-        <v>4.25185177265535</v>
+        <v>-0.0183924466338259</v>
       </c>
       <c r="L55">
-        <v>-3.56329540014359</v>
+        <v>-0.0226909757821899</v>
       </c>
       <c r="M55">
-        <v>5.93921795471066</v>
+        <v>-0.0147700242881737</v>
       </c>
       <c r="N55">
-        <v>4.36087361297984</v>
+        <v>-1.9991789819376</v>
       </c>
       <c r="O55" t="s">
         <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q55">
         <v>1842795</v>
@@ -4459,16 +4465,19 @@
         <v>5521394</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V55" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="W55" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4476,49 +4485,49 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.768783636774762</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0.885057471264368</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>4.95</v>
+        <v>0.9278999999999999</v>
       </c>
       <c r="K56">
-        <v>0.450337404909151</v>
+        <v>-0.0191358513554676</v>
       </c>
       <c r="L56">
-        <v>-1.09948011767481</v>
+        <v>-0.0236493646184446</v>
       </c>
       <c r="M56">
-        <v>1.10107975856921</v>
+        <v>-0.0157562791585056</v>
       </c>
       <c r="N56">
-        <v>9.09772535170001</v>
+        <v>-2.06227517571587</v>
       </c>
       <c r="O56" t="s">
         <v>44</v>
       </c>
       <c r="P56" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q56">
         <v>1842795</v>
@@ -4527,16 +4536,19 @@
         <v>5521394</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V56" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="W56" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4544,49 +4556,49 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>40</v>
       </c>
       <c r="F57">
-        <v>0.570986171506239</v>
+        <v>0.999959296363387</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0.6876790830945561</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.4065</v>
+        <v>1.52</v>
       </c>
       <c r="K57">
-        <v>0.0018362659963436</v>
+        <v>-0.0248026908023483</v>
       </c>
       <c r="L57">
-        <v>-0.0178482768761674</v>
+        <v>-0.0368765034963642</v>
       </c>
       <c r="M57">
-        <v>0.0123099767618898</v>
+        <v>-0.0132158502992338</v>
       </c>
       <c r="N57">
-        <v>0.451725952360072</v>
+        <v>-1.63175597383871</v>
       </c>
       <c r="O57" t="s">
         <v>44</v>
       </c>
       <c r="P57" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q57">
         <v>1842795</v>
@@ -4595,16 +4607,19 @@
         <v>5521394</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V57" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="W57" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4612,10 +4627,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -4636,25 +4651,25 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>98.75</v>
+        <v>0.361</v>
       </c>
       <c r="K58">
-        <v>-0.146275530636764</v>
+        <v>-0.0010777726849824</v>
       </c>
       <c r="L58">
-        <v>-1.5760298020551</v>
+        <v>-0.0990524776508722</v>
       </c>
       <c r="M58">
-        <v>1.24765523151798</v>
+        <v>0.0469986244950931</v>
       </c>
       <c r="N58">
-        <v>-0.148127119632166</v>
+        <v>-0.298551990299858</v>
       </c>
       <c r="O58" t="s">
         <v>44</v>
       </c>
       <c r="P58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q58">
         <v>1842795</v>
@@ -4663,16 +4678,16 @@
         <v>5521394</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4680,10 +4695,10 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -4692,7 +4707,7 @@
         <v>40</v>
       </c>
       <c r="F59">
-        <v>0.923796858021625</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -4704,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>4.775</v>
+        <v>100</v>
       </c>
       <c r="K59">
-        <v>0.165738441780822</v>
+        <v>1.83697779814296</v>
       </c>
       <c r="L59">
-        <v>-0.0240411516015627</v>
+        <v>-4.10667229592628</v>
       </c>
       <c r="M59">
-        <v>0.443027155409823</v>
+        <v>5.93921795471066</v>
       </c>
       <c r="N59">
-        <v>3.47096213153554</v>
+        <v>1.83697779814296</v>
       </c>
       <c r="O59" t="s">
         <v>44</v>
@@ -4731,16 +4746,16 @@
         <v>5521394</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V59" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4748,10 +4763,10 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -4760,37 +4775,37 @@
         <v>40</v>
       </c>
       <c r="F60">
-        <v>0.7945772533607121</v>
+        <v>0.5</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.4065</v>
+        <v>4.95</v>
       </c>
       <c r="K60">
-        <v>0.0036122099657664</v>
+        <v>-0.309214256214935</v>
       </c>
       <c r="L60">
-        <v>-0.0079759756606744</v>
+        <v>-1.57879179568368</v>
       </c>
       <c r="M60">
-        <v>0.0118936288654998</v>
+        <v>0.909961973290442</v>
       </c>
       <c r="N60">
-        <v>0.888612537703925</v>
+        <v>-6.24675265080677</v>
       </c>
       <c r="O60" t="s">
         <v>44</v>
       </c>
       <c r="P60" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q60">
         <v>1842795</v>
@@ -4799,16 +4814,16 @@
         <v>5521394</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U60" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4816,10 +4831,10 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D61" t="b">
         <v>0</v>
@@ -4828,37 +4843,37 @@
         <v>40</v>
       </c>
       <c r="F61">
-        <v>0.259748045355119</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.933333333333333</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>98</v>
+        <v>0.4065</v>
       </c>
       <c r="K61">
-        <v>-0.329350766456267</v>
+        <v>-0.0045393301000303</v>
       </c>
       <c r="L61">
-        <v>-1.33724390661278</v>
+        <v>-0.0196750710387106</v>
       </c>
       <c r="M61">
-        <v>0.620856241451627</v>
+        <v>0.0064293745049617</v>
       </c>
       <c r="N61">
-        <v>-0.33607221066966</v>
+        <v>-1.11668637147117</v>
       </c>
       <c r="O61" t="s">
         <v>44</v>
       </c>
       <c r="P61" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q61">
         <v>1842795</v>
@@ -4867,16 +4882,16 @@
         <v>5521394</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4884,10 +4899,10 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -4896,7 +4911,7 @@
         <v>40</v>
       </c>
       <c r="F62">
-        <v>0.744389827655904</v>
+        <v>0.639742606431872</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -4908,25 +4923,25 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>4.865</v>
+        <v>98.75</v>
       </c>
       <c r="K62">
-        <v>0.0603926972097829</v>
+        <v>0.500114103149247</v>
       </c>
       <c r="L62">
-        <v>-0.0906691479916642</v>
+        <v>-0.926710346947205</v>
       </c>
       <c r="M62">
-        <v>0.170268745691519</v>
+        <v>1.82902588231184</v>
       </c>
       <c r="N62">
-        <v>1.24137096011887</v>
+        <v>0.506444661416959</v>
       </c>
       <c r="O62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q62">
         <v>1842795</v>
@@ -4935,16 +4950,16 @@
         <v>5521394</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="U62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4952,67 +4967,339 @@
         <v>23</v>
       </c>
       <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63">
+        <v>10</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63">
+        <v>0.704247481502542</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>4.775</v>
+      </c>
+      <c r="K63">
+        <v>0.07732590262582061</v>
+      </c>
+      <c r="L63">
+        <v>-0.225470820811208</v>
+      </c>
+      <c r="M63">
+        <v>0.298450336183798</v>
+      </c>
+      <c r="N63">
+        <v>1.61939063090724</v>
+      </c>
+      <c r="O63" t="s">
+        <v>44</v>
+      </c>
+      <c r="P63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q63">
+        <v>1842795</v>
+      </c>
+      <c r="R63">
+        <v>5521394</v>
+      </c>
+      <c r="S63" t="s">
+        <v>60</v>
+      </c>
+      <c r="T63" t="s">
+        <v>61</v>
+      </c>
+      <c r="U63" t="s">
+        <v>62</v>
+      </c>
+      <c r="V63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64">
+        <v>0.707132393208469</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.402</v>
+      </c>
+      <c r="K64">
+        <v>0.0026171070309001</v>
+      </c>
+      <c r="L64">
+        <v>-0.0078914570339356</v>
+      </c>
+      <c r="M64">
+        <v>0.0077142325185491</v>
+      </c>
+      <c r="N64">
+        <v>0.651021649477646</v>
+      </c>
+      <c r="O64" t="s">
+        <v>44</v>
+      </c>
+      <c r="P64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q64">
+        <v>1842795</v>
+      </c>
+      <c r="R64">
+        <v>5521394</v>
+      </c>
+      <c r="S64" t="s">
+        <v>60</v>
+      </c>
+      <c r="T64" t="s">
+        <v>61</v>
+      </c>
+      <c r="U64" t="s">
+        <v>62</v>
+      </c>
+      <c r="V64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
         <v>38</v>
       </c>
-      <c r="C63">
+      <c r="C65">
+        <v>15</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>0.327823592764339</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>-0.250858516483516</v>
+      </c>
+      <c r="L65">
+        <v>-1.18815055400634</v>
+      </c>
+      <c r="M65">
+        <v>0.635933691011539</v>
+      </c>
+      <c r="N65">
+        <v>-0.250858516483516</v>
+      </c>
+      <c r="O65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65">
+        <v>1842795</v>
+      </c>
+      <c r="R65">
+        <v>5521394</v>
+      </c>
+      <c r="S65" t="s">
+        <v>60</v>
+      </c>
+      <c r="T65" t="s">
+        <v>61</v>
+      </c>
+      <c r="U65" t="s">
+        <v>62</v>
+      </c>
+      <c r="V65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66">
+        <v>15</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66">
+        <v>0.616737350238214</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>4.78</v>
+      </c>
+      <c r="K66">
+        <v>0.0329350766456269</v>
+      </c>
+      <c r="L66">
+        <v>-0.0939505649308582</v>
+      </c>
+      <c r="M66">
+        <v>0.129075555732669</v>
+      </c>
+      <c r="N66">
+        <v>0.689018339866671</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q66">
+        <v>1842795</v>
+      </c>
+      <c r="R66">
+        <v>5521394</v>
+      </c>
+      <c r="S66" t="s">
+        <v>60</v>
+      </c>
+      <c r="T66" t="s">
+        <v>61</v>
+      </c>
+      <c r="U66" t="s">
+        <v>62</v>
+      </c>
+      <c r="V66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
         <v>20</v>
       </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>40</v>
-      </c>
-      <c r="F63">
-        <v>0.474090476586625</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67">
+        <v>0.698443866003634</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>0.85</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
         <v>98</v>
       </c>
-      <c r="K63">
-        <v>-0.0125528535721724</v>
-      </c>
-      <c r="L63">
-        <v>-0.600689391987701</v>
-      </c>
-      <c r="M63">
-        <v>0.607169843120262</v>
-      </c>
-      <c r="N63">
-        <v>-0.0128090342573188</v>
-      </c>
-      <c r="O63" t="s">
-        <v>44</v>
-      </c>
-      <c r="P63" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q63">
-        <v>1842795</v>
-      </c>
-      <c r="R63">
-        <v>5521394</v>
-      </c>
-      <c r="S63" t="s">
-        <v>58</v>
-      </c>
-      <c r="T63" t="s">
-        <v>59</v>
-      </c>
-      <c r="U63" t="s">
-        <v>60</v>
-      </c>
-      <c r="V63" t="s">
-        <v>61</v>
+      <c r="K67">
+        <v>0.191618183125964</v>
+      </c>
+      <c r="L67">
+        <v>-0.340192325384143</v>
+      </c>
+      <c r="M67">
+        <v>0.638749459054949</v>
+      </c>
+      <c r="N67">
+        <v>0.1955287582918</v>
+      </c>
+      <c r="O67" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q67">
+        <v>1842795</v>
+      </c>
+      <c r="R67">
+        <v>5521394</v>
+      </c>
+      <c r="S67" t="s">
+        <v>60</v>
+      </c>
+      <c r="T67" t="s">
+        <v>61</v>
+      </c>
+      <c r="U67" t="s">
+        <v>62</v>
+      </c>
+      <c r="V67" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
